--- a/trend_results/Rivers/OruakeretakiatSH2Napier_e2168a7be4.xlsx
+++ b/trend_results/Rivers/OruakeretakiatSH2Napier_e2168a7be4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.586146312145535</v>
+        <v>0.413853687854465</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.830756099790085</v>
+        <v>0.169243900209915</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.623056413547151</v>
+        <v>0.376943586452849</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0006870996586961999</v>
+        <v>0.999312900341304</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.768783636774762</v>
+        <v>3.5525472367198e-05</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.724832214765101</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.527</v>
+        <v>4.35</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0152384715814845</v>
+        <v>0.334478021978022</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0972712680123871</v>
+        <v>0.176876785591029</v>
       </c>
       <c r="M30" t="n">
-        <v>0.06316476750914279</v>
+        <v>0.497006723916132</v>
       </c>
       <c r="N30" t="n">
-        <v>2.89155058472192</v>
+        <v>7.68914993052924</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,7 +3175,11 @@
           <t>Mana_5d</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.95679463351315</v>
+        <v>0.5</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.123376623376623</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.597402597402597</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>110</v>
+        <v>2.1</v>
       </c>
       <c r="K31" t="n">
-        <v>4.54806490384615</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.008160454540943499</v>
+        <v>-0.0498521383075524</v>
       </c>
       <c r="M31" t="n">
-        <v>7.3625735327554</v>
+        <v>0.0436990266685808</v>
       </c>
       <c r="N31" t="n">
-        <v>4.13460445804196</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3233,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3262,7 +3266,11 @@
           <t>Mana_5d</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3287,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.768783636774762</v>
+        <v>0.75362723725986</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.835365853658537</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.74</v>
+        <v>10.145</v>
       </c>
       <c r="K32" t="n">
-        <v>0.247889618118532</v>
+        <v>0.007996715927750199</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.650079721059991</v>
+        <v>-0.0126915129876426</v>
       </c>
       <c r="M32" t="n">
-        <v>0.748908130223355</v>
+        <v>0.0301030219780222</v>
       </c>
       <c r="N32" t="n">
-        <v>4.31863446199533</v>
+        <v>0.0788242082577648</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3349,7 +3357,11 @@
           <t>Mana_5d</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3359,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.570986171506239</v>
+        <v>0.189140331955235</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0182926829268293</v>
       </c>
       <c r="H33" t="n">
+        <v>0.152439024390244</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.526</v>
+        <v>0.015</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0016099173553719</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0212018290177838</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0152455772047583</v>
+        <v>0.0002370336353081</v>
       </c>
       <c r="N33" t="n">
-        <v>0.306067938283632</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,7 +3448,11 @@
           <t>Mana_5d</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3446,14 +3462,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3461,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.359173879173944</v>
+        <v>0.171365744903524</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8</v>
+        <v>0.725609756097561</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>111.5</v>
+        <v>240</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.201239669421488</v>
+        <v>3.31393129515251</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.5385886139063</v>
+        <v>-2.39016920099489</v>
       </c>
       <c r="M34" t="n">
-        <v>1.49289903267835</v>
+        <v>7.86987604946477</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.180484008449765</v>
+        <v>1.38080470631355</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3494,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3523,7 +3539,11 @@
           <t>Mana_5d</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3533,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.639742606431872</v>
+        <v>0.875084709025313</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.849673202614379</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>5.695</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0335463182897863</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.15311363924772</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.15218582236948</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.589048609127063</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3581,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3610,7 +3630,1253 @@
           <t>Mana_5d</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.292544513457094</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.311688311688312</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0844155844155844</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.521416340753589</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9090909090909089</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.9925</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0013994252873563</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0132567245218188</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0138567538783467</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.141000028952778</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.814788245735675</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.521472392638037</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.004981247869076</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0042177740744097</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0133914407278587</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.0657156710959899</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Likely increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.877047605638841</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.975609756097561</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.0075</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.008502026536361699</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0187953319844054</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0044747187839466</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.8438736016239961</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.995128841839066</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.774390243902439</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.1655</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.018235823057534</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0279689886382214</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.0074800712521643</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-1.5646351829716</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.993417307015707</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.304878048780488</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.0003674547283702</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0006054435659928</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.0001141763050953</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1.59762925378357</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.988940763063764</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.859756097560976</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.595</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0259184260864902</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.059611938815957</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.0082651059353033</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-1.62497969194296</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0152384715814845</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0972712680123871</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.06316476750914279</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.89155058472192</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.95679463351315</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>110</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4.54806490384615</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.008160454540943499</v>
+      </c>
+      <c r="M44" t="n">
+        <v>7.3625735327554</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4.13460445804196</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.247889618118532</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.650079721059991</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.748908130223355</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4.31863446199533</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.570986171506239</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0016099173553719</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0212018290177838</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0152455772047583</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.306067938283632</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.359173879173944</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.201239669421488</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.5385886139063</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.49289903267835</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.180484008449765</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.639742606431872</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5.695</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0335463182897863</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.15311363924772</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.15218582236948</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.589048609127063</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0120761018821099</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>113</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-1.25148604269294</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-2.20383444699536</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.353660209115544</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-1.10750977229464</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/OruakeretakiatSH2Napier_e2168a7be4.xlsx
+++ b/trend_results/Rivers/OruakeretakiatSH2Napier_e2168a7be4.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.528316585334242</v>
+        <v>0.944353544978053</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="H2" t="n">
-        <v>0.865384615384615</v>
+        <v>0.862745098039216</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0201430421692518</v>
+        <v>-1.2189256440281</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.50839990130499</v>
+        <v>-2.86203805271661</v>
       </c>
       <c r="M2" t="n">
-        <v>1.33575410971825</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.251788027115647</v>
+        <v>-16.2523419203747</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.992193552915676</v>
+        <v>0.126182285635375</v>
       </c>
       <c r="G3" t="n">
-        <v>0.218181818181818</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="H3" t="n">
-        <v>0.509090909090909</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.359852216748768</v>
+        <v>-0.103943027210884</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07528673971201159</v>
+        <v>-0.355497341486491</v>
       </c>
       <c r="M3" t="n">
-        <v>0.61217482087958</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>14.993842364532</v>
+        <v>-4.15772108843537</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.413853687854465</v>
+        <v>0.614457968297824</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.915254237288136</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.28</v>
+        <v>10.27</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0066895604395603</v>
+        <v>0.0274749803767662</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0399677046366585</v>
+        <v>-0.0331785411581982</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06390442327533639</v>
+        <v>0.0700743383279963</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.06507354513190949</v>
+        <v>0.267526585947091</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.542880568366918</v>
+        <v>0.360587753239983</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -858,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.016</v>
+        <v>0.0145</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0008553864168618</v>
+        <v>-0.0005414828316874</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0007966194111232</v>
+        <v>0.0008919413919413</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.582424166416487</v>
+        <v>0.969431080981221</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.758620689655172</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K6" t="n">
-        <v>-2.98163265306122</v>
+        <v>-25.878036437247</v>
       </c>
       <c r="L6" t="n">
-        <v>-48.7798142782409</v>
+        <v>-68.3234428842084</v>
       </c>
       <c r="M6" t="n">
-        <v>25.8179830895471</v>
+        <v>-3.60858751757019</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.24234693877551</v>
+        <v>-14.3766869095816</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.546919205591833</v>
+        <v>0.920950584389279</v>
       </c>
       <c r="G7" t="n">
-        <v>0.808510638297872</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="H7" t="n">
-        <v>0.25531914893617</v>
+        <v>0.211538461538462</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.971140380039766</v>
+        <v>0.999999729924725</v>
       </c>
       <c r="G8" t="n">
-        <v>0.224137931034483</v>
+        <v>0.344827586206897</v>
       </c>
       <c r="H8" t="n">
-        <v>0.155172413793103</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0002361021331609</v>
+        <v>-0.0006522321428571</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0005166195190947</v>
+        <v>-0.0009220848288462</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-0.0003983097055616</v>
       </c>
       <c r="N8" t="n">
-        <v>-7.87007110536522</v>
+        <v>-32.6116071428571</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.118453321391658</v>
+        <v>0.0012532315262528</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.931034482758621</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.0075</v>
+        <v>1.015</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0442300574467437</v>
+        <v>0.103483339029392</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0109466277190552</v>
+        <v>0.0527937988738125</v>
       </c>
       <c r="M9" t="n">
-        <v>0.118642300493676</v>
+        <v>0.141341384923047</v>
       </c>
       <c r="N9" t="n">
-        <v>4.39008014359739</v>
+        <v>10.1954028600386</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.169243900209915</v>
+        <v>0.0014343867060849</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8245614035087721</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.65</v>
+        <v>7.62</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0270893712794436</v>
+        <v>-0.06363797186189279</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.06562208180983201</v>
+        <v>-0.103043569308284</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0237211541051213</v>
+        <v>-0.0330689706475949</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.354109428489459</v>
+        <v>-0.835143987688882</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.134403371773833</v>
+        <v>0.0012532315262528</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1400,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.022</v>
+        <v>1.03</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0460245754078305</v>
+        <v>0.101486073137389</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0065900792473404</v>
+        <v>0.0451764714111557</v>
       </c>
       <c r="M11" t="n">
-        <v>0.119484209826041</v>
+        <v>0.142644112943052</v>
       </c>
       <c r="N11" t="n">
-        <v>4.50338311231218</v>
+        <v>9.853016809455241</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.85627097440639</v>
+        <v>0.0192346225439794</v>
       </c>
       <c r="G12" t="n">
-        <v>0.344827586206897</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.293103448275862</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1.105</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.08800703894842191</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.521968238411494</v>
+        <v>0.0099664526667255</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.151145184784623</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>7.96443791388433</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,46 +1555,46 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.13309616991717</v>
+        <v>0.654270898171899</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.810344827586207</v>
+        <v>0.448275862068966</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.095</v>
+        <v>0.021</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0401373626373626</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0255632068352762</v>
+        <v>-0.0011323789286133</v>
       </c>
       <c r="M13" t="n">
-        <v>0.09484303741445969</v>
+        <v>0.0007043649781574</v>
       </c>
       <c r="N13" t="n">
-        <v>3.66551256962215</v>
+        <v>0</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.722913805439503</v>
+        <v>0.383733986980362</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0225</v>
+        <v>1.165</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0003753854059609</v>
+        <v>0.0134090633475183</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.001844630218967</v>
+        <v>-0.0839231589496203</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0009529733347612</v>
+        <v>0.111352580108409</v>
       </c>
       <c r="N14" t="n">
-        <v>-1.66837958204865</v>
+        <v>1.15099256201874</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.328690213555041</v>
+        <v>0.0060313881678097</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.0091743119266055</v>
       </c>
       <c r="H15" t="n">
-        <v>0.913793103448276</v>
+        <v>0.779816513761468</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.43</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0467204014138728</v>
+        <v>0.313895680233654</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.1103934961479</v>
+        <v>0.12045505467327</v>
       </c>
       <c r="M15" t="n">
-        <v>0.18266290322391</v>
+        <v>0.634555894835069</v>
       </c>
       <c r="N15" t="n">
-        <v>3.26716093803306</v>
+        <v>6.27791360467307</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0119253644275242</v>
+        <v>0.981665961249467</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.110091743119266</v>
       </c>
       <c r="H16" t="n">
-        <v>0.781818181818182</v>
+        <v>0.605504587155963</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.369494190020506</v>
+        <v>0.09168758557736199</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0823396464896361</v>
+        <v>0.0176869766540536</v>
       </c>
       <c r="M16" t="n">
-        <v>0.619395787559426</v>
+        <v>0.138884813790153</v>
       </c>
       <c r="N16" t="n">
-        <v>5.68452600031547</v>
+        <v>4.5843792788681</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.964960627467635</v>
+        <v>0.759799049671279</v>
       </c>
       <c r="G17" t="n">
-        <v>0.107142857142857</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.651785714285714</v>
+        <v>0.798319327731092</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.05</v>
+        <v>10.19</v>
       </c>
       <c r="K17" t="n">
-        <v>0.07976342129208371</v>
+        <v>0.0142954990215264</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0109552349840713</v>
+        <v>-0.0148788292653739</v>
       </c>
       <c r="M17" t="n">
-        <v>0.127947454844007</v>
+        <v>0.0501694942800585</v>
       </c>
       <c r="N17" t="n">
-        <v>3.89089859961384</v>
+        <v>0.14028948990703</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.279113607409074</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0169491525423729</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.194915254237288</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.376943586452849</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.840336134453782</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>10.19</v>
+        <v>0.015</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.009995894909688101</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0297772991960573</v>
+        <v>-0.0001395148968678</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0301030219780213</v>
+        <v>0.0003710842944006</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09809514141008981</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0189601777164026</v>
+        <v>0.919474807484</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0254237288135593</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.194915254237288</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.015</v>
+        <v>229.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003767405879319</v>
+        <v>-8.73943288854003</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-19.8273123750882</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0006897844582091</v>
+        <v>0.904731637595837</v>
       </c>
       <c r="N19" t="n">
-        <v>2.51160391954616</v>
+        <v>-3.80803175971243</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.624546085322379</v>
+        <v>0.0378635420834795</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.915094339622642</v>
       </c>
       <c r="H20" t="n">
-        <v>0.703389830508475</v>
+        <v>0.113207547169811</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>251</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.16280605147836</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-12.6127150575242</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>8.02700461720138</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.86167571772046</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0127235267470943</v>
+        <v>0.999970221616161</v>
       </c>
       <c r="G21" t="n">
-        <v>0.906542056074766</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="H21" t="n">
-        <v>0.121495327102804</v>
+        <v>0.110169491525424</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.0002220364741641</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0003200453650331</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-7.40121580547112</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,46 +2374,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.99491688491691</v>
+        <v>0.583686202007571</v>
       </c>
       <c r="G22" t="n">
-        <v>0.186440677966102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.110169491525424</v>
+        <v>0.906779661016949</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.003</v>
+        <v>1.065</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0001236459038591</v>
+        <v>-0.0027273254452496</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0002496582365003</v>
+        <v>-0.0221345390843718</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0191319534872404</v>
       </c>
       <c r="N22" t="n">
-        <v>-4.12153012863913</v>
+        <v>-0.256086896267568</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,14 +2465,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.437031570124197</v>
+        <v>0.983174206870262</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.932203389830508</v>
+        <v>0.560344827586207</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.015</v>
+        <v>7.565</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0023381725350875</v>
+        <v>0.0147785252170045</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0157016026458163</v>
+        <v>0.003583108616102</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0220633966557644</v>
+        <v>0.0274624060150377</v>
       </c>
       <c r="N23" t="n">
-        <v>0.230361826116996</v>
+        <v>0.195353935452802</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_5d</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.999312900341304</v>
+        <v>0.593930108009928</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.564102564102564</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.57</v>
+        <v>1.06625</v>
       </c>
       <c r="K24" t="n">
-        <v>0.022596084331416</v>
+        <v>-0.002577572210993</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0113426188848478</v>
+        <v>-0.0219003209231964</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0351778031378792</v>
+        <v>0.0190418955225884</v>
       </c>
       <c r="N24" t="n">
-        <v>0.298495169503513</v>
+        <v>-0.241741825181058</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_5d</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.447477539480191</v>
+        <v>0.778424914987187</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.974576271186441</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.0345</v>
+        <v>1.14</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0027760249478666</v>
+        <v>-0.0065193322255481</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0150685700850656</v>
+        <v>-0.0275852510741599</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0234315948415796</v>
+        <v>0.0114370409085587</v>
       </c>
       <c r="N25" t="n">
-        <v>0.268344605883677</v>
+        <v>-0.571871247855104</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.738285569935106</v>
+        <v>0.963670447551731</v>
       </c>
       <c r="G26" t="n">
-        <v>0.220338983050847</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.220338983050847</v>
+        <v>0.330508474576271</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>0.0225</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-0.000332347588717</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-0.0006379978914357</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>-1.47710039429784</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2836,35 +2836,35 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.5</v>
+        <v>0.736959059536972</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.813559322033898</v>
+        <v>0.889830508474576</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.125</v>
+        <v>1.44</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>-0.0140282543155074</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0160601380114788</v>
+        <v>-0.0538436252028868</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0185382111671566</v>
+        <v>0.0168747156077239</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>-0.974184327465791</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.535285971089016</v>
+        <v>0.0005035892730126</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.00625</v>
       </c>
       <c r="H28" t="n">
-        <v>0.330508474576271</v>
+        <v>0.71875</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0225</v>
+        <v>4.25</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.21934940855323</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0003410364145658</v>
+        <v>0.103343179563754</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0003500869514133</v>
+        <v>0.378917696733844</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>5.16116255419365</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5</v>
+        <v>0.454313903946682</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.116564417177914</v>
       </c>
       <c r="H29" t="n">
-        <v>0.88135593220339</v>
+        <v>0.576687116564417</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>1.475</v>
+        <v>2.1</v>
       </c>
       <c r="K29" t="n">
-        <v>0.000167776757005</v>
+        <v>-0.0039983579638752</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0298289515504254</v>
+        <v>-0.0498521383075524</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02353994313934</v>
+        <v>0.0360816628775061</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0113746953901731</v>
+        <v>-0.190397998279772</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.5525472367198e-05</v>
+        <v>0.830905152612829</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.724832214765101</v>
+        <v>0.806818181818182</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4.35</v>
+        <v>10.165</v>
       </c>
       <c r="K30" t="n">
-        <v>0.334478021978022</v>
+        <v>0.0100343406593404</v>
       </c>
       <c r="L30" t="n">
-        <v>0.176876785591029</v>
+        <v>-0.008249518793924</v>
       </c>
       <c r="M30" t="n">
-        <v>0.497006723916132</v>
+        <v>0.0301030219780213</v>
       </c>
       <c r="N30" t="n">
-        <v>7.68914993052924</v>
+        <v>0.0987146154386665</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,43 +3189,43 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.338365468393847</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0170454545454545</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.142045454545455</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.123376623376623</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.597402597402597</v>
-      </c>
-      <c r="I31" t="n">
-        <v>8</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.1</v>
+        <v>0.015</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0498521383075524</v>
+        <v>-7.8907394779587e-05</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0436990266685808</v>
+        <v>0.000153960559014</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.75362723725986</v>
+        <v>0.649357127913966</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.835365853658537</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.145</v>
+        <v>229</v>
       </c>
       <c r="K32" t="n">
-        <v>0.007996715927750199</v>
+        <v>-1.37612100070982</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0126915129876426</v>
+        <v>-5.96511657317207</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0301030219780222</v>
+        <v>3.46273931925907</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0788242082577648</v>
+        <v>-0.600926201183326</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,23 +3382,23 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.189140331955235</v>
+        <v>0.95040045242539</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0182926829268293</v>
+        <v>0.859756097560976</v>
       </c>
       <c r="H33" t="n">
-        <v>0.152439024390244</v>
+        <v>0.164634146341463</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0002370336353081</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,46 +3462,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.171365744903524</v>
+        <v>0.836985127804574</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.343373493975904</v>
       </c>
       <c r="H34" t="n">
-        <v>0.725609756097561</v>
+        <v>0.0783132530120482</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>240</v>
+        <v>0.003</v>
       </c>
       <c r="K34" t="n">
-        <v>3.31393129515251</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.39016920099489</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>7.86987604946477</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.38080470631355</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.875084709025313</v>
+        <v>0.225340444037043</v>
       </c>
       <c r="G35" t="n">
-        <v>0.849673202614379</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.176470588235294</v>
+        <v>0.8915662650602409</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0065348242811501</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.0052093977598841</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0190484366809707</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.653482428115016</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,32 +3655,32 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.292544513457094</v>
+        <v>0.583513775963732</v>
       </c>
       <c r="G36" t="n">
-        <v>0.311688311688312</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0844155844155844</v>
+        <v>0.494252873563218</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.003</v>
+        <v>7.57</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0070511583011581</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.008696428571428501</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Mana_5d</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.521416340753589</v>
+        <v>0.598944111016712</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9090909090909089</v>
+        <v>0.988636363636364</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9925</v>
+        <v>1.0155</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0013994252873563</v>
+        <v>-0.0019684773047149</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0132567245218188</v>
+        <v>-0.0131114450686157</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0138567538783467</v>
+        <v>0.0105758482148198</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.141000028952778</v>
+        <v>-0.193843161468733</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.814788245735675</v>
+        <v>0.962907559992963</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.521472392638037</v>
+        <v>0.75</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.58</v>
+        <v>1.1655</v>
       </c>
       <c r="K38" t="n">
-        <v>0.004981247869076</v>
+        <v>-0.0112261642364994</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0042177740744097</v>
+        <v>-0.0207537753101114</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0133914407278587</v>
+        <v>-0.0010753605297222</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0657156710959899</v>
+        <v>-0.963205854697501</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Mana_5d</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,14 +3913,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.877047605638841</v>
+        <v>0.999131204290394</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.975609756097561</v>
+        <v>0.289772727272727</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.0075</v>
+        <v>0.023</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.008502026536361699</v>
+        <v>-0.0003896833497471</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0187953319844054</v>
+        <v>-0.0005938544388128</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0044747187839466</v>
+        <v>-0.0001876927029804</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.8438736016239961</v>
+        <v>-1.69427543368305</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.995128841839066</v>
+        <v>0.997212707661651</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.774390243902439</v>
+        <v>0.857954545454545</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.1655</v>
+        <v>1.555</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.018235823057534</v>
+        <v>-0.0299351356822862</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0279689886382214</v>
+        <v>-0.0636609628467424</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0074800712521643</v>
+        <v>-0.0105990907038761</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.5646351829716</v>
+        <v>-1.92508911140104</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,11 +4095,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4110,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.993417307015707</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.304878048780488</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.023</v>
+        <v>0.55</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0003674547283702</v>
+        <v>0.0455951418780128</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0006054435659928</v>
+        <v>-0.028967475493449</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.0001141763050953</v>
+        <v>0.098852350187991</v>
       </c>
       <c r="N41" t="n">
-        <v>-1.59762925378357</v>
+        <v>8.29002579600232</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4172,11 +4172,7 @@
           <t>Mana_5d</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4186,46 +4182,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.986256831944245</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.988940763063764</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.859756097560976</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.595</v>
+        <v>111</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0259184260864902</v>
+        <v>6.49092235993035</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.059611938815957</v>
+        <v>1.81446149970444</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.0082651059353033</v>
+        <v>7.57287742330075</v>
       </c>
       <c r="N42" t="n">
-        <v>-1.62497969194296</v>
+        <v>5.84767780173905</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4263,11 +4259,7 @@
           <t>Mana_5d</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4277,7 +4269,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4304,19 +4296,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.527</v>
+        <v>6.06</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0152384715814845</v>
+        <v>0.305264493940053</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0972712680123871</v>
+        <v>-0.650079721059991</v>
       </c>
       <c r="M43" t="n">
-        <v>0.06316476750914279</v>
+        <v>0.846505090583855</v>
       </c>
       <c r="N43" t="n">
-        <v>2.89155058472192</v>
+        <v>5.03736788679955</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4364,11 +4356,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4379,7 +4371,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.95679463351315</v>
+        <v>0.8144533152386511</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4391,19 +4383,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>110</v>
+        <v>0.5345</v>
       </c>
       <c r="K44" t="n">
-        <v>4.54806490384615</v>
+        <v>0.0107869162087912</v>
       </c>
       <c r="L44" t="n">
-        <v>0.008160454540943499</v>
+        <v>-0.0136426092654634</v>
       </c>
       <c r="M44" t="n">
-        <v>7.3625735327554</v>
+        <v>0.0239293428562222</v>
       </c>
       <c r="N44" t="n">
-        <v>4.13460445804196</v>
+        <v>2.01813212512464</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4412,7 +4404,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4451,11 +4443,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4466,31 +4458,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.768783636774762</v>
+        <v>0.5357779792497041</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>5.74</v>
+        <v>112</v>
       </c>
       <c r="K45" t="n">
-        <v>0.247889618118532</v>
+        <v>0.568482490272374</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.650079721059991</v>
+        <v>-1.44440580265205</v>
       </c>
       <c r="M45" t="n">
-        <v>0.748908130223355</v>
+        <v>2.47518136718109</v>
       </c>
       <c r="N45" t="n">
-        <v>4.31863446199533</v>
+        <v>0.507573652028905</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4499,7 +4491,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4538,7 +4530,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4553,7 +4545,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.570986171506239</v>
+        <v>0.762862824616335</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4565,19 +4557,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.526</v>
+        <v>5.854</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0016099173553719</v>
+        <v>0.0648481287083524</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0212018290177838</v>
+        <v>-0.15311363924772</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0152455772047583</v>
+        <v>0.242069558364042</v>
       </c>
       <c r="N46" t="n">
-        <v>0.306067938283632</v>
+        <v>1.10775757957554</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4586,7 +4578,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4625,11 +4617,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -4640,31 +4632,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.359173879173944</v>
+        <v>0.5</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>111.5</v>
+        <v>0.5345</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.201239669421488</v>
+        <v>0.0003998357963875</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.5385886139063</v>
+        <v>-0.0119987856293407</v>
       </c>
       <c r="M47" t="n">
-        <v>1.49289903267835</v>
+        <v>0.0068307150075864</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.180484008449765</v>
+        <v>0.07480557462816111</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4712,11 +4704,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4727,31 +4719,31 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.639742606431872</v>
+        <v>0.089945777271094</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>5.695</v>
+        <v>114</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0335463182897863</v>
+        <v>-1.00723888314374</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.15311363924772</v>
+        <v>-1.78622534292203</v>
       </c>
       <c r="M48" t="n">
-        <v>0.15218582236948</v>
+        <v>0.0430231738248947</v>
       </c>
       <c r="N48" t="n">
-        <v>0.589048609127063</v>
+        <v>-0.8835428799506519</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4760,7 +4752,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4799,7 +4791,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -4814,31 +4806,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.0120761018821099</v>
+        <v>0.413332984835078</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.785714285714286</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>113</v>
+        <v>5.979</v>
       </c>
       <c r="K49" t="n">
-        <v>-1.25148604269294</v>
+        <v>-0.0198993848857646</v>
       </c>
       <c r="L49" t="n">
-        <v>-2.20383444699536</v>
+        <v>-0.12590807472226</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.353660209115544</v>
+        <v>0.0812806310842694</v>
       </c>
       <c r="N49" t="n">
-        <v>-1.10750977229464</v>
+        <v>-0.332821289275206</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4847,7 +4839,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q49" t="n">

--- a/trend_results/Rivers/OruakeretakiatSH2Napier_e2168a7be4.xlsx
+++ b/trend_results/Rivers/OruakeretakiatSH2Napier_e2168a7be4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="66">
   <si>
     <t>site name</t>
   </si>
@@ -151,43 +151,37 @@
     <t>RepSite</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
     <t>Very likely improving</t>
   </si>
   <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
-    <t>Virtually certain improving</t>
+    <t>Extremely likely increasing</t>
   </si>
   <si>
     <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -669,31 +663,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.944353544978053</v>
+        <v>0.893917882029023</v>
       </c>
       <c r="G2">
-        <v>0.0196078431372549</v>
+        <v>0.0212765957446809</v>
       </c>
       <c r="H2">
-        <v>0.862745098039216</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>-1.2189256440281</v>
+        <v>-0.717146242383209</v>
       </c>
       <c r="L2">
-        <v>-2.86203805271661</v>
+        <v>-2.00818718539741</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.230423366601316</v>
       </c>
       <c r="N2">
-        <v>-16.2523419203747</v>
+        <v>-14.3429248476642</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -708,19 +702,19 @@
         <v>5539702</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" t="s">
         <v>60</v>
-      </c>
-      <c r="V2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -740,31 +734,31 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.126182285635375</v>
+        <v>0.025521798563636</v>
       </c>
       <c r="G3">
-        <v>0.230769230769231</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="H3">
-        <v>0.538461538461538</v>
+        <v>0.543478260869565</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K3">
-        <v>-0.103943027210884</v>
+        <v>-0.310586734693878</v>
       </c>
       <c r="L3">
-        <v>-0.355497341486491</v>
+        <v>-0.53979015788306</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-4.15772108843537</v>
+        <v>-13.5037710736469</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
@@ -779,19 +773,19 @@
         <v>5539702</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V3" t="s">
+        <v>59</v>
+      </c>
+      <c r="W3" t="s">
         <v>61</v>
-      </c>
-      <c r="W3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -811,7 +805,7 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.614457968297824</v>
+        <v>0.915960840482515</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -823,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.27</v>
+        <v>10.28</v>
       </c>
       <c r="K4">
-        <v>0.0274749803767662</v>
+        <v>0.0548501617053832</v>
       </c>
       <c r="L4">
-        <v>-0.0331785411581982</v>
+        <v>-0.0100343406593404</v>
       </c>
       <c r="M4">
-        <v>0.0700743383279963</v>
+        <v>0.0947789341977487</v>
       </c>
       <c r="N4">
-        <v>0.267526585947091</v>
+        <v>0.533561884293611</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
@@ -850,19 +844,19 @@
         <v>5539702</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -882,28 +876,28 @@
         <v>41</v>
       </c>
       <c r="F5">
-        <v>0.360587753239983</v>
+        <v>0.494622740567724</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.344827586206897</v>
+        <v>0.362068965517241</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0145</v>
+        <v>0.014</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-0.0005414828316874</v>
+        <v>-0.0007297702297702</v>
       </c>
       <c r="M5">
-        <v>0.0008919413919413</v>
+        <v>0.0005733908948194</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -921,19 +915,19 @@
         <v>5539702</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -953,31 +947,31 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.969431080981221</v>
+        <v>0.912537381871773</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.827586206896552</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>180</v>
+        <v>179.2</v>
       </c>
       <c r="K6">
-        <v>-25.878036437247</v>
+        <v>-20.289871738169</v>
       </c>
       <c r="L6">
-        <v>-68.3234428842084</v>
+        <v>-48.0820504318936</v>
       </c>
       <c r="M6">
-        <v>-3.60858751757019</v>
+        <v>5.81325443434778</v>
       </c>
       <c r="N6">
-        <v>-14.3766869095816</v>
+        <v>-11.3224730681746</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
@@ -992,19 +986,19 @@
         <v>5539702</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1024,16 +1018,16 @@
         <v>42</v>
       </c>
       <c r="F7">
-        <v>0.920950584389279</v>
+        <v>0.823047458644261</v>
       </c>
       <c r="G7">
-        <v>0.846153846153846</v>
+        <v>0.884615384615385</v>
       </c>
       <c r="H7">
-        <v>0.211538461538462</v>
+        <v>0.134615384615385</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0.005</v>
@@ -1063,19 +1057,19 @@
         <v>5539702</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1095,31 +1089,31 @@
         <v>43</v>
       </c>
       <c r="F8">
-        <v>0.999999729924725</v>
+        <v>0.999999897209862</v>
       </c>
       <c r="G8">
-        <v>0.344827586206897</v>
+        <v>0.517241379310345</v>
       </c>
       <c r="H8">
-        <v>0.137931034482759</v>
+        <v>0.120689655172414</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K8">
-        <v>-0.0006522321428571</v>
+        <v>-0.0003648851148851</v>
       </c>
       <c r="L8">
-        <v>-0.0009220848288462</v>
+        <v>-0.0005830590743984</v>
       </c>
       <c r="M8">
-        <v>-0.0003983097055616</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>-32.6116071428571</v>
+        <v>-36.4885114885115</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
@@ -1134,19 +1128,19 @@
         <v>5539702</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1166,37 +1160,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.0012532315262528</v>
+        <v>0.831062575630752</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H9">
         <v>0.948275862068966</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1.015</v>
+        <v>0.9615</v>
       </c>
       <c r="K9">
-        <v>0.103483339029392</v>
+        <v>-0.0434573267458348</v>
       </c>
       <c r="L9">
-        <v>0.0527937988738125</v>
+        <v>-0.122759221618299</v>
       </c>
       <c r="M9">
-        <v>0.141341384923047</v>
+        <v>0.0191626754443258</v>
       </c>
       <c r="N9">
-        <v>10.1954028600386</v>
+        <v>-4.51974277127767</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <v>1857900</v>
@@ -1205,19 +1199,19 @@
         <v>5539702</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1237,37 +1231,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.0014343867060849</v>
+        <v>0.533802087050225</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.842105263157895</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.62</v>
+        <v>7.605</v>
       </c>
       <c r="K10">
-        <v>-0.06363797186189279</v>
+        <v>0.0032693340494093</v>
       </c>
       <c r="L10">
-        <v>-0.103043569308284</v>
+        <v>-0.0405786109337263</v>
       </c>
       <c r="M10">
-        <v>-0.0330689706475949</v>
+        <v>0.047435064935065</v>
       </c>
       <c r="N10">
-        <v>-0.835143987688882</v>
+        <v>0.0429892708666577</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q10">
         <v>1857900</v>
@@ -1276,16 +1270,16 @@
         <v>5539702</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1305,37 +1299,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.0012532315262528</v>
+        <v>0.831062575630752</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.9655172413793101</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.03</v>
+        <v>0.9645</v>
       </c>
       <c r="K11">
-        <v>0.101486073137389</v>
+        <v>-0.0442951402428217</v>
       </c>
       <c r="L11">
-        <v>0.0451764714111557</v>
+        <v>-0.12865139711049</v>
       </c>
       <c r="M11">
-        <v>0.142644112943052</v>
+        <v>0.0102799673876099</v>
       </c>
       <c r="N11">
-        <v>9.853016809455241</v>
+        <v>-4.59254953269276</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q11">
         <v>1857900</v>
@@ -1344,19 +1338,19 @@
         <v>5539702</v>
       </c>
       <c r="S11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1376,7 +1370,7 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.0192346225439794</v>
+        <v>0.791297282434572</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1388,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.105</v>
+        <v>1.035</v>
       </c>
       <c r="K12">
-        <v>0.08800703894842191</v>
+        <v>-0.0358723677638151</v>
       </c>
       <c r="L12">
-        <v>0.0099664526667255</v>
+        <v>-0.110899332520794</v>
       </c>
       <c r="M12">
-        <v>0.151145184784623</v>
+        <v>0.0254978284180409</v>
       </c>
       <c r="N12">
-        <v>7.96443791388433</v>
+        <v>-3.46592925254252</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q12">
         <v>1857900</v>
@@ -1415,19 +1409,19 @@
         <v>5539702</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1447,28 +1441,28 @@
         <v>41</v>
       </c>
       <c r="F13">
-        <v>0.654270898171899</v>
+        <v>0.478520537672205</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.448275862068966</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>-0.0011323789286133</v>
+        <v>-0.0008858267379781</v>
       </c>
       <c r="M13">
-        <v>0.0007043649781574</v>
+        <v>0.0008399772877836</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1486,19 +1480,19 @@
         <v>5539702</v>
       </c>
       <c r="S13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1518,37 +1512,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.383733986980362</v>
+        <v>0.229886323274283</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.931034482758621</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.165</v>
+        <v>1.06</v>
       </c>
       <c r="K14">
-        <v>0.0134090633475183</v>
+        <v>0.0426459478021978</v>
       </c>
       <c r="L14">
-        <v>-0.0839231589496203</v>
+        <v>-0.0463468615020252</v>
       </c>
       <c r="M14">
-        <v>0.111352580108409</v>
+        <v>0.09449394601319699</v>
       </c>
       <c r="N14">
-        <v>1.15099256201874</v>
+        <v>4.02320262284885</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q14">
         <v>1857900</v>
@@ -1557,19 +1551,19 @@
         <v>5539702</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1589,37 +1583,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.0060313881678097</v>
+        <v>0.126909891029428</v>
       </c>
       <c r="G15">
-        <v>0.0091743119266055</v>
+        <v>0.0096153846153846</v>
       </c>
       <c r="H15">
-        <v>0.779816513761468</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4.35</v>
       </c>
       <c r="K15">
-        <v>0.313895680233654</v>
+        <v>0.190402205828401</v>
       </c>
       <c r="L15">
-        <v>0.12045505467327</v>
+        <v>-0.07560896782373849</v>
       </c>
       <c r="M15">
-        <v>0.634555894835069</v>
+        <v>0.491241287987201</v>
       </c>
       <c r="N15">
-        <v>6.27791360467307</v>
+        <v>4.37706220295176</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q15">
         <v>1857900</v>
@@ -1628,19 +1622,19 @@
         <v>5539702</v>
       </c>
       <c r="S15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U15" t="s">
+        <v>58</v>
+      </c>
+      <c r="V15" t="s">
+        <v>59</v>
+      </c>
+      <c r="W15" t="s">
         <v>60</v>
-      </c>
-      <c r="V15" t="s">
-        <v>61</v>
-      </c>
-      <c r="W15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1660,37 +1654,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.981665961249467</v>
+        <v>0.951874168416329</v>
       </c>
       <c r="G16">
-        <v>0.110091743119266</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="H16">
-        <v>0.605504587155963</v>
+        <v>0.557692307692308</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K16">
         <v>0.09168758557736199</v>
       </c>
       <c r="L16">
-        <v>0.0176869766540536</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.138884813790153</v>
+        <v>0.15219510674935</v>
       </c>
       <c r="N16">
-        <v>4.5843792788681</v>
+        <v>4.47256515011522</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q16">
         <v>1857900</v>
@@ -1699,19 +1693,19 @@
         <v>5539702</v>
       </c>
       <c r="S16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V16" t="s">
+        <v>59</v>
+      </c>
+      <c r="W16" t="s">
         <v>61</v>
-      </c>
-      <c r="W16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1731,13 +1725,13 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.759799049671279</v>
+        <v>0.9170008531421689</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.798319327731092</v>
+        <v>0.8151260504201679</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1746,22 +1740,22 @@
         <v>10.19</v>
       </c>
       <c r="K17">
-        <v>0.0142954990215264</v>
+        <v>0.0301030219780213</v>
       </c>
       <c r="L17">
-        <v>-0.0148788292653739</v>
+        <v>-0.0065615158280493</v>
       </c>
       <c r="M17">
-        <v>0.0501694942800585</v>
+        <v>0.0551832141680779</v>
       </c>
       <c r="N17">
-        <v>0.14028948990703</v>
+        <v>0.295417291246529</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Q17">
         <v>1857900</v>
@@ -1770,19 +1764,19 @@
         <v>5539702</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1802,13 +1796,13 @@
         <v>43</v>
       </c>
       <c r="F18">
-        <v>0.279113607409074</v>
+        <v>0.527912411635747</v>
       </c>
       <c r="G18">
         <v>0.0169491525423729</v>
       </c>
       <c r="H18">
-        <v>0.194915254237288</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1820,10 +1814,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>-0.0001395148968678</v>
+        <v>-0.0002170127869287</v>
       </c>
       <c r="M18">
-        <v>0.0003710842944006</v>
+        <v>0.0002350386100386</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1832,7 +1826,7 @@
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q18">
         <v>1857900</v>
@@ -1841,19 +1835,19 @@
         <v>5539702</v>
       </c>
       <c r="S18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1873,37 +1867,37 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.919474807484</v>
+        <v>0.965569204132449</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.728813559322034</v>
+        <v>0.735042735042735</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>229.5</v>
+        <v>200</v>
       </c>
       <c r="K19">
-        <v>-8.73943288854003</v>
+        <v>-9.27173076923077</v>
       </c>
       <c r="L19">
-        <v>-19.8273123750882</v>
+        <v>-19.9484692795034</v>
       </c>
       <c r="M19">
-        <v>0.904731637595837</v>
+        <v>-0.996739079718824</v>
       </c>
       <c r="N19">
-        <v>-3.80803175971243</v>
+        <v>-4.63586538461538</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q19">
         <v>1857900</v>
@@ -1912,19 +1906,19 @@
         <v>5539702</v>
       </c>
       <c r="S19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1944,13 +1938,13 @@
         <v>42</v>
       </c>
       <c r="F20">
-        <v>0.0378635420834795</v>
+        <v>0.1558263840219</v>
       </c>
       <c r="G20">
-        <v>0.915094339622642</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="H20">
-        <v>0.113207547169811</v>
+        <v>0.123809523809524</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -1974,7 +1968,7 @@
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q20">
         <v>1857900</v>
@@ -1983,19 +1977,19 @@
         <v>5539702</v>
       </c>
       <c r="S20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2015,10 +2009,10 @@
         <v>43</v>
       </c>
       <c r="F21">
-        <v>0.999970221616161</v>
+        <v>0.999999995111654</v>
       </c>
       <c r="G21">
-        <v>0.254237288135593</v>
+        <v>0.347457627118644</v>
       </c>
       <c r="H21">
         <v>0.110169491525424</v>
@@ -2030,16 +2024,16 @@
         <v>0.003</v>
       </c>
       <c r="K21">
-        <v>-0.0002220364741641</v>
+        <v>-0.0003087489433643</v>
       </c>
       <c r="L21">
-        <v>-0.0003200453650331</v>
+        <v>-0.0004224985540775</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-0.0002030294608115</v>
       </c>
       <c r="N21">
-        <v>-7.40121580547112</v>
+        <v>-10.2916314454776</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
@@ -2054,19 +2048,19 @@
         <v>5539702</v>
       </c>
       <c r="S21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2086,37 +2080,37 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.583686202007571</v>
+        <v>0.995184822775278</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H22">
-        <v>0.906779661016949</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>1.065</v>
+        <v>0.983</v>
       </c>
       <c r="K22">
-        <v>-0.0027273254452496</v>
+        <v>-0.0269869455142515</v>
       </c>
       <c r="L22">
-        <v>-0.0221345390843718</v>
+        <v>-0.0448511956464095</v>
       </c>
       <c r="M22">
-        <v>0.0191319534872404</v>
+        <v>-0.0117742597932421</v>
       </c>
       <c r="N22">
-        <v>-0.256086896267568</v>
+        <v>-2.74536576950676</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q22">
         <v>1857900</v>
@@ -2125,19 +2119,19 @@
         <v>5539702</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2157,37 +2151,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.983174206870262</v>
+        <v>0.960605738050004</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.560344827586207</v>
+        <v>0.573913043478261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.565</v>
+        <v>7.59</v>
       </c>
       <c r="K23">
-        <v>0.0147785252170045</v>
+        <v>0.0127264808362368</v>
       </c>
       <c r="L23">
-        <v>0.003583108616102</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.0274624060150377</v>
+        <v>0.0250768533094907</v>
       </c>
       <c r="N23">
-        <v>0.195353935452802</v>
+        <v>0.167674319318008</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q23">
         <v>1857900</v>
@@ -2196,16 +2190,16 @@
         <v>5539702</v>
       </c>
       <c r="S23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2225,37 +2219,37 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.593930108009928</v>
+        <v>0.995184822775278</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.9830508474576271</v>
+        <v>0.957627118644068</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.06625</v>
+        <v>0.9895</v>
       </c>
       <c r="K24">
-        <v>-0.002577572210993</v>
+        <v>-0.0285595152654363</v>
       </c>
       <c r="L24">
-        <v>-0.0219003209231964</v>
+        <v>-0.0449491057921632</v>
       </c>
       <c r="M24">
-        <v>0.0190418955225884</v>
+        <v>-0.0111517392156097</v>
       </c>
       <c r="N24">
-        <v>-0.241741825181058</v>
+        <v>-2.88625722743166</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q24">
         <v>1857900</v>
@@ -2264,19 +2258,19 @@
         <v>5539702</v>
       </c>
       <c r="S24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2296,37 +2290,37 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.778424914987187</v>
+        <v>0.998344963350063</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.76271186440678</v>
+        <v>0.6949152542372879</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.14</v>
+        <v>1.085</v>
       </c>
       <c r="K25">
-        <v>-0.0065193322255481</v>
+        <v>-0.0318041597144803</v>
       </c>
       <c r="L25">
-        <v>-0.0275852510741599</v>
+        <v>-0.0450112202329756</v>
       </c>
       <c r="M25">
-        <v>0.0114370409085587</v>
+        <v>-0.0143772631462433</v>
       </c>
       <c r="N25">
-        <v>-0.571871247855104</v>
+        <v>-2.93125895985993</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q25">
         <v>1857900</v>
@@ -2335,19 +2329,19 @@
         <v>5539702</v>
       </c>
       <c r="S25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2367,31 +2361,31 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.963670447551731</v>
+        <v>0.941448780668535</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.330508474576271</v>
+        <v>0.313559322033898</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.0225</v>
+        <v>0.022</v>
       </c>
       <c r="K26">
-        <v>-0.000332347588717</v>
+        <v>-0.0002520703933747</v>
       </c>
       <c r="L26">
-        <v>-0.0006379978914357</v>
+        <v>-0.0005353314031493</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>-1.47710039429784</v>
+        <v>-1.14577451533973</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
@@ -2406,19 +2400,19 @@
         <v>5539702</v>
       </c>
       <c r="S26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2438,37 +2432,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.736959059536972</v>
+        <v>0.663730365907833</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.889830508474576</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.44</v>
+        <v>1.295</v>
       </c>
       <c r="K27">
-        <v>-0.0140282543155074</v>
+        <v>-0.0122161014959327</v>
       </c>
       <c r="L27">
-        <v>-0.0538436252028868</v>
+        <v>-0.0437716094872571</v>
       </c>
       <c r="M27">
-        <v>0.0168747156077239</v>
+        <v>0.021777660762517</v>
       </c>
       <c r="N27">
-        <v>-0.974184327465791</v>
+        <v>-0.943328300844227</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Q27">
         <v>1857900</v>
@@ -2477,19 +2471,19 @@
         <v>5539702</v>
       </c>
       <c r="S27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2509,37 +2503,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.0005035892730126</v>
+        <v>0.0056397246647781</v>
       </c>
       <c r="G28">
         <v>0.00625</v>
       </c>
       <c r="H28">
-        <v>0.71875</v>
+        <v>0.7</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>4.25</v>
+        <v>4.075</v>
       </c>
       <c r="K28">
-        <v>0.21934940855323</v>
+        <v>0.165595717871813</v>
       </c>
       <c r="L28">
-        <v>0.103343179563754</v>
+        <v>0.0496914151733474</v>
       </c>
       <c r="M28">
-        <v>0.378917696733844</v>
+        <v>0.298017810277419</v>
       </c>
       <c r="N28">
-        <v>5.16116255419365</v>
+        <v>4.06369859808131</v>
       </c>
       <c r="O28" t="s">
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Q28">
         <v>1857900</v>
@@ -2548,19 +2542,19 @@
         <v>5539702</v>
       </c>
       <c r="S28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U28" t="s">
+        <v>58</v>
+      </c>
+      <c r="V28" t="s">
+        <v>59</v>
+      </c>
+      <c r="W28" t="s">
         <v>60</v>
-      </c>
-      <c r="V28" t="s">
-        <v>61</v>
-      </c>
-      <c r="W28" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2580,37 +2574,37 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.454313903946682</v>
+        <v>0.7428762985059419</v>
       </c>
       <c r="G29">
-        <v>0.116564417177914</v>
+        <v>0.120253164556962</v>
       </c>
       <c r="H29">
-        <v>0.576687116564417</v>
+        <v>0.569620253164557</v>
       </c>
       <c r="I29">
         <v>8</v>
       </c>
       <c r="J29">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K29">
-        <v>-0.0039983579638752</v>
+        <v>0.0158104012651641</v>
       </c>
       <c r="L29">
-        <v>-0.0498521383075524</v>
+        <v>-0.0269307096815392</v>
       </c>
       <c r="M29">
-        <v>0.0360816628775061</v>
+        <v>0.0651521631220268</v>
       </c>
       <c r="N29">
-        <v>-0.190397998279772</v>
+        <v>0.790520063258204</v>
       </c>
       <c r="O29" t="s">
         <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q29">
         <v>1857900</v>
@@ -2619,19 +2613,19 @@
         <v>5539702</v>
       </c>
       <c r="S29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V29" t="s">
+        <v>59</v>
+      </c>
+      <c r="W29" t="s">
         <v>61</v>
-      </c>
-      <c r="W29" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2651,37 +2645,37 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.830905152612829</v>
+        <v>0.915493272496101</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.806818181818182</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.165</v>
+        <v>10.18</v>
       </c>
       <c r="K30">
-        <v>0.0100343406593404</v>
+        <v>0.0130905275330293</v>
       </c>
       <c r="L30">
-        <v>-0.008249518793924</v>
+        <v>-0.0016943369320448</v>
       </c>
       <c r="M30">
-        <v>0.0301030219780213</v>
+        <v>0.031198964128273</v>
       </c>
       <c r="N30">
-        <v>0.0987146154386665</v>
+        <v>0.128590643742921</v>
       </c>
       <c r="O30" t="s">
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Q30">
         <v>1857900</v>
@@ -2690,19 +2684,19 @@
         <v>5539702</v>
       </c>
       <c r="S30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2722,7 +2716,7 @@
         <v>43</v>
       </c>
       <c r="F31">
-        <v>0.338365468393847</v>
+        <v>0.251489071524436</v>
       </c>
       <c r="G31">
         <v>0.0170454545454545</v>
@@ -2740,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>-7.8907394779587E-05</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0.000153960559014</v>
+        <v>0.0001739285714285</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2752,7 +2746,7 @@
         <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q31">
         <v>1857900</v>
@@ -2761,19 +2755,19 @@
         <v>5539702</v>
       </c>
       <c r="S31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2793,37 +2787,37 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.649357127913966</v>
+        <v>0.79757213070309</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.727272727272727</v>
+        <v>0.737142857142857</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="K32">
-        <v>-1.37612100070982</v>
+        <v>-2.4541443626631</v>
       </c>
       <c r="L32">
-        <v>-5.96511657317207</v>
+        <v>-6.66470022597466</v>
       </c>
       <c r="M32">
-        <v>3.46273931925907</v>
+        <v>2.48814740262322</v>
       </c>
       <c r="N32">
-        <v>-0.600926201183326</v>
+        <v>-1.11552016484686</v>
       </c>
       <c r="O32" t="s">
         <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q32">
         <v>1857900</v>
@@ -2832,19 +2826,19 @@
         <v>5539702</v>
       </c>
       <c r="S32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2864,16 +2858,16 @@
         <v>42</v>
       </c>
       <c r="F33">
-        <v>0.95040045242539</v>
+        <v>0.92420323244612</v>
       </c>
       <c r="G33">
-        <v>0.859756097560976</v>
+        <v>0.871165644171779</v>
       </c>
       <c r="H33">
-        <v>0.164634146341463</v>
+        <v>0.147239263803681</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J33">
         <v>0.005</v>
@@ -2903,19 +2897,19 @@
         <v>5539702</v>
       </c>
       <c r="S33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2935,25 +2929,25 @@
         <v>43</v>
       </c>
       <c r="F34">
-        <v>0.836985127804574</v>
+        <v>0.988411000112202</v>
       </c>
       <c r="G34">
-        <v>0.343373493975904</v>
+        <v>0.380681818181818</v>
       </c>
       <c r="H34">
-        <v>0.0783132530120482</v>
+        <v>0.0738636363636364</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
       <c r="J34">
-        <v>0.003</v>
+        <v>0.0025</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>-0.0001007308328736</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2965,7 +2959,7 @@
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q34">
         <v>1857900</v>
@@ -2974,19 +2968,19 @@
         <v>5539702</v>
       </c>
       <c r="S34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3006,37 +3000,37 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.225340444037043</v>
+        <v>0.874929215932878</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.0170454545454545</v>
       </c>
       <c r="H35">
-        <v>0.8915662650602409</v>
+        <v>0.875</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0.9655</v>
       </c>
       <c r="K35">
-        <v>0.0065348242811501</v>
+        <v>-0.0079662231240488</v>
       </c>
       <c r="L35">
-        <v>-0.0052093977598841</v>
+        <v>-0.0179053352102458</v>
       </c>
       <c r="M35">
-        <v>0.0190484366809707</v>
+        <v>0.002993673957475</v>
       </c>
       <c r="N35">
-        <v>0.653482428115016</v>
+        <v>-0.825087842987969</v>
       </c>
       <c r="O35" t="s">
         <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q35">
         <v>1857900</v>
@@ -3045,19 +3039,19 @@
         <v>5539702</v>
       </c>
       <c r="S35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3074,34 +3068,34 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36">
-        <v>0.583513775963732</v>
+        <v>0.93431488157024</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.494252873563218</v>
+        <v>0.468208092485549</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.57</v>
+        <v>7.58</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>0.0063957457654402</v>
       </c>
       <c r="L36">
-        <v>-0.0070511583011581</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0.008696428571428501</v>
+        <v>0.013379120879121</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>0.084376593211613</v>
       </c>
       <c r="O36" t="s">
         <v>44</v>
@@ -3116,16 +3110,16 @@
         <v>5539702</v>
       </c>
       <c r="S36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3145,37 +3139,37 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.598944111016712</v>
+        <v>0.886664781066005</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.988636363636364</v>
+        <v>0.9715909090909089</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1.0155</v>
+        <v>0.9795</v>
       </c>
       <c r="K37">
-        <v>-0.0019684773047149</v>
+        <v>-0.0078784083496412</v>
       </c>
       <c r="L37">
-        <v>-0.0131114450686157</v>
+        <v>-0.0176157484110535</v>
       </c>
       <c r="M37">
-        <v>0.0105758482148198</v>
+        <v>0.0025721981754195</v>
       </c>
       <c r="N37">
-        <v>-0.193843161468733</v>
+        <v>-0.804329591591754</v>
       </c>
       <c r="O37" t="s">
         <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q37">
         <v>1857900</v>
@@ -3184,19 +3178,19 @@
         <v>5539702</v>
       </c>
       <c r="S37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3216,37 +3210,37 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.962907559992963</v>
+        <v>0.998875258168303</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.75</v>
+        <v>0.7159090909090911</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1.1655</v>
+        <v>1.105</v>
       </c>
       <c r="K38">
-        <v>-0.0112261642364994</v>
+        <v>-0.0196492673442409</v>
       </c>
       <c r="L38">
-        <v>-0.0207537753101114</v>
+        <v>-0.029582955209449</v>
       </c>
       <c r="M38">
-        <v>-0.0010753605297222</v>
+        <v>-0.0100111596164958</v>
       </c>
       <c r="N38">
-        <v>-0.963205854697501</v>
+        <v>-1.77821423929782</v>
       </c>
       <c r="O38" t="s">
         <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38">
         <v>1857900</v>
@@ -3255,19 +3249,19 @@
         <v>5539702</v>
       </c>
       <c r="S38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3287,13 +3281,13 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.999131204290394</v>
+        <v>0.994298326516874</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.289772727272727</v>
+        <v>0.278409090909091</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3302,16 +3296,16 @@
         <v>0.023</v>
       </c>
       <c r="K39">
-        <v>-0.0003896833497471</v>
+        <v>-0.0002855193930255</v>
       </c>
       <c r="L39">
-        <v>-0.0005938544388128</v>
+        <v>-0.0004899396378269</v>
       </c>
       <c r="M39">
-        <v>-0.0001876927029804</v>
+        <v>-7.90203715240287E-05</v>
       </c>
       <c r="N39">
-        <v>-1.69427543368305</v>
+        <v>-1.24138866532856</v>
       </c>
       <c r="O39" t="s">
         <v>44</v>
@@ -3326,19 +3320,19 @@
         <v>5539702</v>
       </c>
       <c r="S39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3358,31 +3352,31 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.997212707661651</v>
+        <v>0.997678289339469</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.857954545454545</v>
+        <v>0.823863636363636</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1.555</v>
+        <v>1.475</v>
       </c>
       <c r="K40">
-        <v>-0.0299351356822862</v>
+        <v>-0.0321439420595825</v>
       </c>
       <c r="L40">
-        <v>-0.0636609628467424</v>
+        <v>-0.06517772918448179</v>
       </c>
       <c r="M40">
-        <v>-0.0105990907038761</v>
+        <v>-0.014482057420279</v>
       </c>
       <c r="N40">
-        <v>-1.92508911140104</v>
+        <v>-2.17925030912423</v>
       </c>
       <c r="O40" t="s">
         <v>44</v>
@@ -3397,19 +3391,19 @@
         <v>5539702</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3429,7 +3423,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.95679463351315</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3444,22 +3438,22 @@
         <v>0.55</v>
       </c>
       <c r="K41">
-        <v>0.0455951418780128</v>
+        <v>0.0404776936945362</v>
       </c>
       <c r="L41">
-        <v>-0.028967475493449</v>
+        <v>-0.0828347447273487</v>
       </c>
       <c r="M41">
         <v>0.098852350187991</v>
       </c>
       <c r="N41">
-        <v>8.29002579600232</v>
+        <v>7.35958067173386</v>
       </c>
       <c r="O41" t="s">
         <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q41">
         <v>1857900</v>
@@ -3468,16 +3462,16 @@
         <v>5539702</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3509,10 +3503,10 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="K42">
-        <v>6.49092235993035</v>
+        <v>5.56244426926031</v>
       </c>
       <c r="L42">
         <v>1.81446149970444</v>
@@ -3521,13 +3515,13 @@
         <v>7.57287742330075</v>
       </c>
       <c r="N42">
-        <v>5.84767780173905</v>
+        <v>4.44995541540825</v>
       </c>
       <c r="O42" t="s">
         <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q42">
         <v>1857900</v>
@@ -3536,16 +3530,16 @@
         <v>5539702</v>
       </c>
       <c r="S42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3565,7 +3559,7 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.768783636774762</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3577,25 +3571,25 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>6.06</v>
+        <v>6.2</v>
       </c>
       <c r="K43">
-        <v>0.305264493940053</v>
+        <v>0.359367550316793</v>
       </c>
       <c r="L43">
-        <v>-0.650079721059991</v>
+        <v>-0.5418058057798329</v>
       </c>
       <c r="M43">
         <v>0.846505090583855</v>
       </c>
       <c r="N43">
-        <v>5.03736788679955</v>
+        <v>5.79625081156117</v>
       </c>
       <c r="O43" t="s">
         <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="Q43">
         <v>1857900</v>
@@ -3604,16 +3598,16 @@
         <v>5539702</v>
       </c>
       <c r="S43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3633,7 +3627,7 @@
         <v>40</v>
       </c>
       <c r="F44">
-        <v>0.8144533152386511</v>
+        <v>0.923796858021625</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3645,25 +3639,25 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.5345</v>
+        <v>0.5095</v>
       </c>
       <c r="K44">
-        <v>0.0107869162087912</v>
+        <v>0.0116701223657376</v>
       </c>
       <c r="L44">
-        <v>-0.0136426092654634</v>
+        <v>-0.0060746411855988</v>
       </c>
       <c r="M44">
-        <v>0.0239293428562222</v>
+        <v>0.0267277284998011</v>
       </c>
       <c r="N44">
-        <v>2.01813212512464</v>
+        <v>2.29050488041955</v>
       </c>
       <c r="O44" t="s">
         <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q44">
         <v>1857900</v>
@@ -3672,16 +3666,16 @@
         <v>5539702</v>
       </c>
       <c r="S44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3701,7 +3695,7 @@
         <v>40</v>
       </c>
       <c r="F45">
-        <v>0.5357779792497041</v>
+        <v>0.878482519852739</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3716,22 +3710,22 @@
         <v>112</v>
       </c>
       <c r="K45">
-        <v>0.568482490272374</v>
+        <v>2.1867033603708</v>
       </c>
       <c r="L45">
-        <v>-1.44440580265205</v>
+        <v>-0.419460978553734</v>
       </c>
       <c r="M45">
-        <v>2.47518136718109</v>
+        <v>4.31521919000551</v>
       </c>
       <c r="N45">
-        <v>0.507573652028905</v>
+        <v>1.95241371461679</v>
       </c>
       <c r="O45" t="s">
         <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q45">
         <v>1857900</v>
@@ -3740,16 +3734,16 @@
         <v>5539702</v>
       </c>
       <c r="S45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3769,7 +3763,7 @@
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.762862824616335</v>
+        <v>0.894751149972331</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3781,25 +3775,25 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>5.854</v>
+        <v>5.9</v>
       </c>
       <c r="K46">
-        <v>0.0648481287083524</v>
+        <v>0.096817154255319</v>
       </c>
       <c r="L46">
-        <v>-0.15311363924772</v>
+        <v>-0.100094781066751</v>
       </c>
       <c r="M46">
-        <v>0.242069558364042</v>
+        <v>0.276519547157031</v>
       </c>
       <c r="N46">
-        <v>1.10775757957554</v>
+        <v>1.64096871619185</v>
       </c>
       <c r="O46" t="s">
         <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="Q46">
         <v>1857900</v>
@@ -3808,16 +3802,16 @@
         <v>5539702</v>
       </c>
       <c r="S46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3837,7 +3831,7 @@
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.5</v>
+        <v>0.421542614634992</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3849,19 +3843,19 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.5345</v>
+        <v>0.532</v>
       </c>
       <c r="K47">
-        <v>0.0003998357963875</v>
+        <v>-0.0016754587155963</v>
       </c>
       <c r="L47">
-        <v>-0.0119987856293407</v>
+        <v>-0.0092822207176708</v>
       </c>
       <c r="M47">
-        <v>0.0068307150075864</v>
+        <v>0.0047174451163529</v>
       </c>
       <c r="N47">
-        <v>0.07480557462816111</v>
+        <v>-0.314935848796303</v>
       </c>
       <c r="O47" t="s">
         <v>44</v>
@@ -3876,16 +3870,16 @@
         <v>5539702</v>
       </c>
       <c r="S47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3905,13 +3899,13 @@
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.089945777271094</v>
+        <v>0.382984071951325</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0.8</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3920,22 +3914,22 @@
         <v>114</v>
       </c>
       <c r="K48">
-        <v>-1.00723888314374</v>
+        <v>-0.166325136612022</v>
       </c>
       <c r="L48">
-        <v>-1.78622534292203</v>
+        <v>-1.45664990563404</v>
       </c>
       <c r="M48">
-        <v>0.0430231738248947</v>
+        <v>1.04180976863552</v>
       </c>
       <c r="N48">
-        <v>-0.8835428799506519</v>
+        <v>-0.145899242642124</v>
       </c>
       <c r="O48" t="s">
         <v>44</v>
       </c>
       <c r="P48" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q48">
         <v>1857900</v>
@@ -3944,16 +3938,16 @@
         <v>5539702</v>
       </c>
       <c r="S48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3973,7 +3967,7 @@
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.413332984835078</v>
+        <v>0.539420674887488</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3985,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>5.979</v>
+        <v>5.99</v>
       </c>
       <c r="K49">
-        <v>-0.0198993848857646</v>
+        <v>0.0100778478517934</v>
       </c>
       <c r="L49">
-        <v>-0.12590807472226</v>
+        <v>-0.108545853099086</v>
       </c>
       <c r="M49">
-        <v>0.0812806310842694</v>
+        <v>0.0933677516584747</v>
       </c>
       <c r="N49">
-        <v>-0.332821289275206</v>
+        <v>0.168244538427268</v>
       </c>
       <c r="O49" t="s">
         <v>44</v>
@@ -4012,16 +4006,16 @@
         <v>5539702</v>
       </c>
       <c r="S49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
